--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_25.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_25.xlsx
@@ -483,40 +483,40 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>schubert-winterreise_0</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>jaah_87</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.238961038961039</v>
+        <v>0.07051282051282051</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['B:min', 'F#:maj', 'B:min', 'B:7']]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['Gb:7', 'Cb', 'Gb:7', 'Cb']]</t>
+          <t>[['F:min', 'C', 'F:min', 'F:7']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(17.9, 21.54)]</t>
+          <t>[(12.14, 21.58)]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(45.522, 50.551)]</t>
+          <t>[(11.89, 19.531)]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -524,113 +524,113 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_77</t>
+          <t>schubert-winterreise_10</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.2</v>
+        <v>0.08749999999999999</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'D']]</t>
+          <t>[['C:min', 'F:7/C', 'A#'], ['C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'D:maj/2']]</t>
+          <t>[['C:min', 'F:7/A', 'A#:maj'], ['C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(23.145056, 27.452358)]</t>
+          <t>[(37.2, 39.9), (236.4, 239.98)]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(27.877925, 31.546678)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+          <t>[(37.2, 43.88), (0.8, 9.28)]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_52</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
+          <t>schubert-winterreise_17</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.08928571428571429</v>
+        <v>0.323076923076923</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G']]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(67.10043, 74.101247)]</t>
+          <t>[(16.92, 23.9)]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(9.92, 11.96)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[(138.02, 142.34)]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>jaah_88</t>
+          <t>schubert-winterreise_182</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_15</t>
+          <t>schubert-winterreise_145</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.04006410256410256</v>
+        <v>1</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:7', 'F:7', 'Bb:7', 'Bb:7']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:7', 'C:7', 'F:7', 'F:7']]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(4.02, 10.3)]</t>
+          <t>[(82.24, 89.66)]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(78.69, 81.66)]</t>
+          <t>[(76.74, 83.98)]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -639,195 +639,191 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>schubert-winterreise_11</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>isophonics_274</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1319148936170213</v>
+        <v>0.1083333333333333</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D#:maj', 'G#:maj', 'D#:maj']]</t>
+          <t>[['Ab', 'Db', 'Ab']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(3.988594, 7.754783)]</t>
+          <t>[(69.86, 73.74)]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(118.4, 121.72)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[(3.129454, 5.172811)]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_52</t>
+          <t>isophonics_6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_81</t>
+          <t>isophonics_277</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.2154471544715447</v>
+        <v>0.2095238095238095</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['F', 'Bb', 'F', 'F']]</t>
+          <t>[['G/5', 'D', 'G/5', 'D']]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B', 'E/5', 'B', 'B']]</t>
+          <t>[['A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(62.53, 68.09)]</t>
+          <t>[(21.391, 26.25)]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(58.625147, 67.541609)]</t>
+          <t>[(31.840929, 39.410634)]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>schubert-winterreise_116</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_219</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2727272727272727</v>
+        <v>0.3342175066312997</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['B:min', 'B:min', 'F#:maj/A#']]</t>
+          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:min', 'D:min', 'A']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(13.08, 17.7)]</t>
+          <t>[(44.3, 67.1)]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(1.172266, 30.209183)]</t>
+          <t>[(0.22, 8.88)]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2EqlS6tkEnglzr7tkKAAYD</t>
-        </is>
-      </c>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>jaah_49</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_91</t>
+          <t>schubert-winterreise_105</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.07682425488180883</v>
+        <v>0.2528735632183908</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb']]</t>
+          <t>[['D#:min', 'A#:7', 'D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'D#:maj']]</t>
+          <t>[['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(44.74, 47.14)]</t>
+          <t>[(12.32, 19.9)]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(80.48, 93.6)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[(23.74, 51.72)]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_48</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_23</t>
+          <t>jaah_28</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.4761904761904762</v>
+        <v>0.111038961038961</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['Eb:7', 'F:min7', 'F:min7']]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['Ab:7', 'Db:maj6', 'Db:maj6']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(55.84, 65.04)]</t>
+          <t>[(103.22, 107.52)]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(2.58, 16.36)]</t>
+          <t>[(16.96, 19.46)]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -836,76 +832,80 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
+          <t>schubert-winterreise_184</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.1712473572938689</v>
+        <v>0.07334525939177103</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C#:hdim7/E', 'F#:(3,5,b7,b9)', 'B:min']]</t>
+          <t>[['A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['A:hdim7/C', 'D:(3,5,b7,b9)', 'G:min']]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(22.6, 29.14)]</t>
+          <t>[(28.02, 30.1)]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(49.14, 52.96)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[(37.54, 42.72)]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_96</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
+          <t>isophonics_204</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.2039473684210526</v>
+        <v>0.1675824175824176</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj']]</t>
+          <t>[['Ab/b5', 'Ab:7', 'Db/3', 'Db:min/b3', 'Ab']]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['A', 'A:7', 'D', 'D:min', 'A']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(11.384, 18.318)]</t>
+          <t>[(5.32, 11.34)]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(17.581738, 30.271443)]</t>
+          <t>[(18.651995, 28.810725)]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr"/>
@@ -914,76 +914,76 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>isophonics_224</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>isophonics_201</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.1613636363636363</v>
+        <v>0.1302083333333333</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C', 'C/G', 'G:7']]</t>
+          <t>[['E:7', 'A', 'D']]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj'], ['A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['C:7', 'F:maj', 'Bb:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(236.4, 239.98), (235.32, 237.58)]</t>
+          <t>[(26.987959, 33.059977)]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(19.14, 22.24), (8.02, 15.1)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[(63.251, 70.247)]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_51</t>
+          <t>schubert-winterreise_211</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_93</t>
+          <t>schubert-winterreise_63</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.08423913043478261</v>
+        <v>0.233974358974359</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['C', 'A:min', 'C']]</t>
+          <t>[['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C/7', 'A:min', 'C/5']]</t>
+          <t>[['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(0.459543, 6.612448)]</t>
+          <t>[(34.64, 41.66)]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(22.808367, 26.52356)]</t>
+          <t>[(43.32, 47.42)]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr"/>
@@ -992,35 +992,35 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_79</t>
+          <t>isophonics_288</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_57</t>
+          <t>isophonics_294</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.02086870401810979</v>
+        <v>0.08452380952380953</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Eb', 'E:dim7', 'Bb']]</t>
+          <t>[['E', 'D', 'A']]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['Gb', 'G:dim7', 'Db/5']]</t>
+          <t>[['G', 'F', 'C/3']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(15.24, 16.88)]</t>
+          <t>[(22.169818, 24.921383)]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(156.77, 157.87)]</t>
+          <t>[(45.670113, 48.251979)]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1029,76 +1029,72 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>jaah_20</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1602002503128911</v>
+        <v>0.1619047619047619</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['A', 'A', 'D', 'A']]</t>
+          <t>[['F:min/C', 'C:7', 'F:min', 'G#:maj']]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E', 'E', 'A', 'E']]</t>
+          <t>[['F:min', 'C:7', 'F:min', 'Ab']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(3.101913, 7.754783)]</t>
+          <t>[(47.4, 56.94)]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(22.125076, 36.625937)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+          <t>[(45.67, 51.02)]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
+          <t>isophonics_194</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>schubert-winterreise_200</t>
+          <t>isophonics_93</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.3028846153846154</v>
+        <v>0.06227967097532315</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['G', 'D', 'D'], ['D', 'A', 'B:min'], ['G:maj6/5', 'G/5', 'D']]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>[['F:maj/9', 'C', 'C/7'], ['C', 'G', 'A:min'], ['D:min7/4', 'F:maj/9', 'C']]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[(0.98, 6.14)]</t>
+          <t>[(10.919344, 16.143834), (60.888687, 69.665829), (4.893766, 6.623653)]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[(81.28, 89.42)]</t>
+          <t>[(20.323832, 24.050634), (3.059795, 10.455351), (19.081564, 22.808367)]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>

--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_25.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_25.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,622 +488,660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_0</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_87</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.07051282051282051</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:maj', 'B:min', 'B:7']]</t>
-        </is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_277</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F:min', 'C', 'F:min', 'F:7']]</t>
+          <t>[['A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(12.14, 21.58)]</t>
+          <t>[['A', 'E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(11.89, 19.531)]</t>
+          <t>[('0:00:35.197913', '0:00:46.610521')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:31.840929', '0:00:39.410634')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_10</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.08749999999999999</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:7/C', 'A#'], ['C/G', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_210</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_49</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1880877742946708</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:7/A', 'A#:maj'], ['C:maj', 'G:7', 'C:maj']]</t>
+          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(37.2, 39.9), (236.4, 239.98)]</t>
+          <t>[['A:min', 'E:7/B', 'A:min/C'], ['A:min', 'E:maj/G#', 'A:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(37.2, 43.88), (0.8, 9.28)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:16.580000', '0:00:22.660000'), ('0:00:07.140000', '0:00:14.340000')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:00.340000', '0:00:02.340000'), ('0:00:13.340000', '0:00:16.080000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_17</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.323076923076923</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
-        </is>
+          <t>isophonics_2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_243</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1944444444444444</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>[['C:min', 'F:maj', 'Bb:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(16.92, 23.9)]</t>
+          <t>[['F#:min', 'B', 'E', 'C#:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(138.02, 142.34)]</t>
+          <t>[('0:01:02.760000', '0:01:16.324000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:01.302038', '0:00:07.344387')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_145</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_47</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.125</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(82.24, 89.66)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(76.74, 83.98)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:01:23.340000', '0:01:27.640000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:01.302038', '0:00:05.439841')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1083333333333333</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
-        </is>
+          <t>jaah_3</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jaah_52</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1287262872628726</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab']]</t>
+          <t>[['Bb:7', 'Eb', 'Eb', 'Bb:7', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(69.86, 73.74)]</t>
+          <t>[['C:7', 'F', 'F', 'C:7', 'C:7', 'F']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(3.129454, 5.172811)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:31.890000', '0:00:37.300000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:49.610000', '0:00:59.750000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_6</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2095238095238095</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G/5', 'D', 'G/5', 'D']]</t>
-        </is>
+          <t>isophonics_164</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_33</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3642857142857143</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>[['C:min', 'D:7', 'G'], ['Eb', 'Bb:7', 'Eb']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(21.391, 26.25)]</t>
+          <t>[['G:min', 'A:7/C#', 'D:maj'], ['G:maj/D', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(31.840929, 39.410634)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+          <t>[('0:01:14.967000', '0:01:24.194000'), ('0:00:48.001000', '0:00:54.307000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:14.300000', '0:00:20.560000'), ('0:01:05.440000', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_116</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_179</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3342175066312997</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min']]</t>
-        </is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_212</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3555555555555555</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
+          <t>[['G', 'C', 'G', 'C', 'G', 'C', 'G', 'G']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(44.3, 67.1)]</t>
+          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'D', 'D']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.22, 8.88)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>[('0:00:00.465952', '0:00:14.990307')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:00:46.932280', '0:01:02.118130')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_105</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2528735632183908</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min', 'A#:maj', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_9</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(12.32, 19.9)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(23.74, 51.72)]</t>
+          <t>[('0:00:21.080000', '0:00:24.960000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:03:49.340000', '0:04:05.220000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_28</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.111038961038961</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'F:min7', 'F:min7']]</t>
-        </is>
+          <t>schubert-winterreise_101</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_114</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db:maj6', 'Db:maj6']]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(103.22, 107.52)]</t>
+          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(16.96, 19.46)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:30.800000', '0:00:45.300000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:38.700000', '0:01:58.800000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A#:maj/F', 'F:7', 'A#:maj']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_234</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6666666666666666</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(28.02, 30.1)]</t>
+          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(37.54, 42.72)]</t>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:15.439000', '0:01:23.381000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_21</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1675824175824176</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['Ab/b5', 'Ab:7', 'Db/3', 'Db:min/b3', 'Ab']]</t>
-        </is>
+          <t>schubert-winterreise_142</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A', 'A:7', 'D', 'D:min', 'A']]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(5.32, 11.34)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(18.651995, 28.810725)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
+          <t>[('0:00:00.700000', '0:00:21.420000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:00.300000', '0:00:20.700000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_201</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1302083333333333</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'Bb:maj']]</t>
+          <t>[['D#:maj/A#', 'A#:(3,5,b7,b9)', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(26.987959, 33.059977)]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(63.251, 70.247)]</t>
+          <t>[('0:00:54.780000', '0:00:57.520000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+          <t>[('0:00:22.600000', '0:00:25.720000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.233974358974359</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_5</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(34.64, 41.66)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(43.32, 47.42)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:10.940000', '0:01:05.780000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:11.060000', '0:01:06.820000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_288</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.08452380952380953</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_133</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G', 'F', 'C/3']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(22.169818, 24.921383)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(45.670113, 48.251979)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:01:04.220000', '0:01:10.300000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:01:00.680000', '0:01:06.800000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>jaah_20</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1619047619047619</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C:7', 'F:min', 'G#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_46</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_54</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'Ab']]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(47.4, 56.94)]</t>
+          <t>[['G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:maj/G', 'G:min', 'D:7/G', 'G:min', 'D:7/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(45.67, 51.02)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:10.360000', '0:01:59')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:09.240000', '0:01:48.600000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_194</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_93</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.06227967097532315</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G', 'D', 'D'], ['D', 'A', 'B:min'], ['G:maj6/5', 'G/5', 'D']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['F:maj/9', 'C', 'C/7'], ['C', 'G', 'A:min'], ['D:min7/4', 'F:maj/9', 'C']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(10.919344, 16.143834), (60.888687, 69.665829), (4.893766, 6.623653)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(20.323832, 24.050634), (3.059795, 10.455351), (19.081564, 22.808367)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
